--- a/src/test/resources/testdata/dataset_01.xlsx
+++ b/src/test/resources/testdata/dataset_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS571\IdeaProjects\macsteel\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS571\Desktop\AUTOMATION\LastedJunitFrameworkWithCucumber\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5483BD-7529-46DC-B617-3E38F7C9CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68447FF7-F9C9-4C48-8B83-926689107096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4785" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4785" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User_Info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -35,21 +35,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Mahbubur</t>
-  </si>
-  <si>
-    <t>Rahman</t>
-  </si>
-  <si>
-    <t>mahbub@comalytics.com</t>
-  </si>
-  <si>
-    <t>P@ssword01</t>
-  </si>
-  <si>
-    <t>Macsteel</t>
-  </si>
-  <si>
     <t>First-name</t>
   </si>
   <si>
@@ -62,12 +47,6 @@
     <t>Product_Name</t>
   </si>
   <si>
-    <t>REINFORCING BS 4449/2005 500MPA B500B BARS 12mm x 13.000Mtr</t>
-  </si>
-  <si>
-    <t>REINFORCING-BS-44492005-500MPA-B500B-BARS-12mm-x-13000Mtr</t>
-  </si>
-  <si>
     <t>Product_URL_Path</t>
   </si>
   <si>
@@ -77,9 +56,6 @@
     <t>ProductAddQty</t>
   </si>
   <si>
-    <t>R 162.37</t>
-  </si>
-  <si>
     <t>Customer_Purchase_Order</t>
   </si>
   <si>
@@ -92,28 +68,7 @@
     <t>DeliveryDateOption</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>impersonate-customer-email</t>
-  </si>
-  <si>
-    <t>B2Buser3@comalytics.com</t>
-  </si>
-  <si>
-    <t>ROUND BAR COMMERCIAL QUALITY 6 6.000Mtr</t>
-  </si>
-  <si>
-    <t>ROUND-BAR-COMMERCIAL-QUALITY-6--6000Mtr</t>
-  </si>
-  <si>
-    <t>R 19.08</t>
-  </si>
-  <si>
-    <t>PO16448TS985WW</t>
-  </si>
-  <si>
-    <t>Your order has been successfully processed!Test</t>
   </si>
 </sst>
 </file>
@@ -501,7 +456,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,10 +470,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -527,52 +482,32 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8C061859-3482-4914-B4CC-E3C433DE4111}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{7419DCDA-218C-4665-B683-0BB014EB8836}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{D596F15A-6802-4A32-B081-5132A79103E7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E434EB1-8C80-4121-91E5-3D55ED96CD5E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,45 +521,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -636,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7155FF-0D14-427E-9C05-DA98546C219E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,31 +561,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2</v>
-      </c>
+      <c r="D2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
